--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_8_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_8_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31587.16379410918</v>
+        <v>6285845.595027722</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31587.16379410918</v>
+        <v>6285845.595027722</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23513.72112757751</v>
+        <v>1613511.198277055</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23513.72112757751</v>
+        <v>1613511.198277055</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341947670.779505</v>
+        <v>53130046.14090476</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10878.68992295891</v>
+        <v>1177794.765339366</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21273.85910091643</v>
+        <v>2279749.675630386</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31669.02827887396</v>
+        <v>3381704.585921407</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44355.31970460243</v>
+        <v>4457039.623359251</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56842.68102932077</v>
+        <v>5492787.570696084</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>69330.04235403911</v>
+        <v>6528535.518032914</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82219.22347673721</v>
+        <v>7579160.14254146</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95184.86136907118</v>
+        <v>8620506.522311635</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>107804.2951200166</v>
+        <v>9644478.43398279</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120043.2216149572</v>
+        <v>10699768.97640428</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>131629.364364893</v>
+        <v>11801723.88669529</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>142146.2578218996</v>
+        <v>12864091.70688531</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>152862.0813799163</v>
+        <v>13966046.61717634</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>163577.9049379329</v>
+        <v>15068001.52746737</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>174546.5241019387</v>
+        <v>16034256.98678437</v>
       </c>
     </row>
   </sheetData>
